--- a/biology/Zoologie/Amblyeleotris_guttata/Amblyeleotris_guttata.xlsx
+++ b/biology/Zoologie/Amblyeleotris_guttata/Amblyeleotris_guttata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gobie grimé
 Le Gobie grimé (Amblyeleotris guttata) est une espèce de gobies de la famille des gobiidés. 
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son corps effilé et cylindrique est blanc recouvert de petites taches orange. Adulte, il mesure 7 cm, mais peut atteindre 11 cm[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son corps effilé et cylindrique est blanc recouvert de petites taches orange. Adulte, il mesure 7 cm, mais peut atteindre 11 cm.
 Comme tous les gobies la nageoire dorsale est bipartie.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Gobie grimé est fréquente les eaux tropicales de la zone occidentale de l'océan Pacifiquede la grande barrière de corail, la Micronésie, les Philippines, des îles Ryukyu, aux les îles Samoa.
 </t>
@@ -576,7 +592,9 @@
           <t>Habitat et écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Amblyeleotris guttata se rencontre sur des bancs de sable et des herbiers situés entre 10 et 40 mètres de profondeur.
 </t>
@@ -607,7 +625,9 @@
           <t>En aquarium</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que fragile et rarement disponible en magasin, on peut le maintenir en aquarium. Il lui faut une cuve de minimum 200 litres et une qualité de l'eau impeccable.
 Il est omnivore et accepte toute sorte de nourriture, mais il est difficile de le nourrir en aquarium communautaire.
@@ -641,9 +661,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Ce taxon admet un synonyme[2],[3] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ce taxon admet un synonyme, :
 Pteroculiops guttatus Fowler, 1938</t>
         </is>
       </c>
@@ -672,7 +694,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Fowler, 1938 : Descriptions of new fishes obtained by the United States Bureau of Fisheries steamer "Albatross", chiefly in Philippine seas and adjacent waters. Proceedings of the United States National Museum 85-3032 p. 31–135.</t>
         </is>
